--- a/books/active_production/Large_Print_Crossword_Masters/volume_1/kdp_import.xlsx
+++ b/books/active_production/Large_Print_Crossword_Masters/volume_1/kdp_import.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,25 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Category3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Territories</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Royalty</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>KENP_READY</t>
         </is>
@@ -518,28 +523,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kindle Store &gt; Kindle eBooks &gt; Humor &amp; Entertainment &gt; Puzzles &amp; Games &gt; Crosswords</t>
+          <t>Kindle Books &gt; Humor &amp; Entertainment &gt; Activities, Puzzles &amp; Games &gt; Crosswords</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Kindle Store &gt; Kindle eBooks &gt; Health, Fitness &amp; Dieting &gt; Aging</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>Kindle Books &gt; Large Print</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Kindle Books &gt; Games &gt; Crosswords</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>4.99</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/books/active_production/Large_Print_Crossword_Masters/volume_1/kdp_import.xlsx
+++ b/books/active_production/Large_Print_Crossword_Masters/volume_1/kdp_import.xlsx
@@ -528,12 +528,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Kindle Books &gt; Large Print</t>
+          <t>Kindle Books &gt; Reference</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Kindle Books &gt; Games &gt; Crosswords</t>
+          <t>Kindle Books &gt; Humor &amp; Entertainment</t>
         </is>
       </c>
       <c r="I2" t="n">
